--- a/HW3/testcase-doc-hw3.xlsx
+++ b/HW3/testcase-doc-hw3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="118">
   <si>
     <t>Test Case Documentation, CS3240 Python HW3</t>
   </si>
@@ -275,40 +275,76 @@
     <t>Returns True. Node A no longer in graph. Node B no longer adjacent to node A.</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Test remove() from a Queue with 3 items</t>
-  </si>
-  <si>
-    <t>Queue has 3 items: a, b, c. Item c is the front item.</t>
-  </si>
-  <si>
-    <t>Returns c.   Queue has two items: a, b (in that order)</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Test add() on a Queue with 2 items</t>
-  </si>
-  <si>
-    <t>Queue has 2 items: a, b. Item b is the front item.</t>
-  </si>
-  <si>
-    <t>Value d is parameter to add()</t>
-  </si>
-  <si>
-    <t>Queue has 3 items: d, a, b (in that order, b is front item)</t>
-  </si>
-  <si>
-    <t>Test is_complete() with an almost complete graph</t>
-  </si>
-  <si>
-    <t>The paramater is a graph with nodes a, b, c, d which is completely connected except edge a-b is not present</t>
-  </si>
-  <si>
-    <t>returns false</t>
+    <t>GF1</t>
+  </si>
+  <si>
+    <t>test is_complete() on a graph with 0 nodes. </t>
+  </si>
+  <si>
+    <t>Empty graph. Call graph.is_complete()</t>
+  </si>
+  <si>
+    <t>return true. </t>
+  </si>
+  <si>
+    <t>GF2</t>
+  </si>
+  <si>
+    <t>test is_complete() on an incomplete graph. </t>
+  </si>
+  <si>
+    <t>Graph containing { 'A': ['B'], 'B': ['A', 'C'], 'C': ['B']}. Call graph.is_complete()</t>
+  </si>
+  <si>
+    <t>Return false because A and C are not connected. </t>
+  </si>
+  <si>
+    <t>GF3</t>
+  </si>
+  <si>
+    <t>test is_complete() on a complete graph. </t>
+  </si>
+  <si>
+    <t>Graph containing { 'A': ['B', 'C'], 'B': ['A', 'C'], 'C': ['B', 'A']}. Call graph.is_complete()</t>
+  </si>
+  <si>
+    <t>Return True because all nodes are connected. </t>
+  </si>
+  <si>
+    <t>GF4</t>
+  </si>
+  <si>
+    <t>test nodes_by degree on a graph with 0 nodes. </t>
+  </si>
+  <si>
+    <t>Empty graph. Call graph.nodes_by_degree()</t>
+  </si>
+  <si>
+    <t>return an empty list. </t>
+  </si>
+  <si>
+    <t>GF5</t>
+  </si>
+  <si>
+    <t>test nodes_by degree on a graph with several nodes. </t>
+  </si>
+  <si>
+    <t>Graph containing { 'A': ['B'], 'B': ['A', 'C'], 'C': ['B']}. Call graph.nodes_by_degree. </t>
+  </si>
+  <si>
+    <t>Return [('B', 2), ('A', 1), ('C', 1)]</t>
+  </si>
+  <si>
+    <t>GF6</t>
+  </si>
+  <si>
+    <t>test nodes_by degree, passing a non graph object</t>
+  </si>
+  <si>
+    <t>call nodes_by degree with a list rather than Graph object. </t>
+  </si>
+  <si>
+    <t>Raise a typeerror exception. </t>
   </si>
   <si>
     <t>Test Graph constructor with no initialization dict.</t>
@@ -474,10 +510,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D65536"/>
+  <dimension ref="A1:D193"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C109" activeCellId="0" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1224,187 +1260,234 @@
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="4"/>
     </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B108" s="4"/>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="4"/>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B110" s="4"/>
+      <c r="B110" s="4" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="4"/>
     </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B112" s="4"/>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B113" s="4"/>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="4"/>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B115" s="4"/>
+      <c r="B115" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
     </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="3"/>
-      <c r="B117" s="4"/>
-    </row>
-    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="3"/>
-      <c r="B118" s="4"/>
-    </row>
-    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="3"/>
-      <c r="B119" s="4"/>
-    </row>
-    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3"/>
-      <c r="B120" s="4"/>
+    <row r="117" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
     </row>
-    <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="3"/>
-      <c r="B122" s="4"/>
-    </row>
-    <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="3"/>
-      <c r="B123" s="4"/>
-    </row>
-    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="3"/>
-      <c r="B124" s="4"/>
-    </row>
-    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="3"/>
-      <c r="B125" s="4"/>
+    <row r="122" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="3"/>
       <c r="B126" s="4"/>
     </row>
-    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="3"/>
-      <c r="B127" s="4"/>
-    </row>
-    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="3"/>
-      <c r="B128" s="4"/>
-    </row>
-    <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="0"/>
+    <row r="127" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>87</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="3"/>
+      <c r="B131" s="4"/>
     </row>
     <row r="132" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>88</v>
+        <v>5</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="0"/>
-    </row>
-    <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="0"/>
-    </row>
-    <row r="136" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="5"/>
-      <c r="B139" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>94</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="3"/>
+      <c r="B136" s="4"/>
+    </row>
+    <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="3"/>
+      <c r="B137" s="4"/>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="3"/>
+      <c r="B138" s="4"/>
+    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="3"/>
+      <c r="B139" s="4"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="0"/>
@@ -1412,197 +1495,201 @@
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="0"/>
     </row>
-    <row r="143" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>97</v>
-      </c>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="0"/>
+    </row>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="0"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="0"/>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0"/>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="B150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="B152" s="0"/>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="B155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="5" t="s">
-        <v>5</v>
-      </c>
+      <c r="B157" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B174" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="4"/>
-    </row>
-    <row r="179" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D181" s="0" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="4"/>
+    </row>
+    <row r="190" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D192" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
